--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dhh-Hhip.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dhh-Hhip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.633182469832844</v>
+        <v>2.179395</v>
       </c>
       <c r="H2">
-        <v>0.633182469832844</v>
+        <v>6.538185</v>
       </c>
       <c r="I2">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="J2">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.48707706960927</v>
+        <v>6.605175333333333</v>
       </c>
       <c r="N2">
-        <v>6.48707706960927</v>
+        <v>19.815526</v>
       </c>
       <c r="O2">
-        <v>0.5753879839836321</v>
+        <v>0.5779586116201393</v>
       </c>
       <c r="P2">
-        <v>0.5753879839836321</v>
+        <v>0.5779586116201394</v>
       </c>
       <c r="Q2">
-        <v>4.107503480931205</v>
+        <v>14.39528609559</v>
       </c>
       <c r="R2">
-        <v>4.107503480931205</v>
+        <v>129.55757486031</v>
       </c>
       <c r="S2">
-        <v>0.1854040635542108</v>
+        <v>0.280022044665811</v>
       </c>
       <c r="T2">
-        <v>0.1854040635542108</v>
+        <v>0.2800220446658111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.633182469832844</v>
+        <v>2.179395</v>
       </c>
       <c r="H3">
-        <v>0.633182469832844</v>
+        <v>6.538185</v>
       </c>
       <c r="I3">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="J3">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.78718873048051</v>
+        <v>4.823282</v>
       </c>
       <c r="N3">
-        <v>4.78718873048051</v>
+        <v>14.469846</v>
       </c>
       <c r="O3">
-        <v>0.4246120160163679</v>
+        <v>0.4220413883798607</v>
       </c>
       <c r="P3">
-        <v>0.4246120160163679</v>
+        <v>0.4220413883798607</v>
       </c>
       <c r="Q3">
-        <v>3.031163983921606</v>
+        <v>10.51183667439</v>
       </c>
       <c r="R3">
-        <v>3.031163983921606</v>
+        <v>94.60653006951001</v>
       </c>
       <c r="S3">
-        <v>0.1368203636411353</v>
+        <v>0.2044798539750803</v>
       </c>
       <c r="T3">
-        <v>0.1368203636411353</v>
+        <v>0.2044798539750803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,61 +643,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.33185312769801</v>
+        <v>0.7348883333333333</v>
       </c>
       <c r="H4">
-        <v>1.33185312769801</v>
+        <v>2.204665</v>
       </c>
       <c r="I4">
-        <v>0.6777755728046539</v>
+        <v>0.1633732264179005</v>
       </c>
       <c r="J4">
-        <v>0.6777755728046539</v>
+        <v>0.1633732264179005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.48707706960927</v>
+        <v>6.605175333333333</v>
       </c>
       <c r="N4">
-        <v>6.48707706960927</v>
+        <v>19.815526</v>
       </c>
       <c r="O4">
-        <v>0.5753879839836321</v>
+        <v>0.5779586116201393</v>
       </c>
       <c r="P4">
-        <v>0.5753879839836321</v>
+        <v>0.5779586116201394</v>
       </c>
       <c r="Q4">
-        <v>8.639833884777147</v>
+        <v>4.854066292087777</v>
       </c>
       <c r="R4">
-        <v>8.639833884777147</v>
+        <v>43.68659662878999</v>
       </c>
       <c r="S4">
-        <v>0.3899839204294213</v>
+        <v>0.09442296311639242</v>
       </c>
       <c r="T4">
-        <v>0.3899839204294213</v>
+        <v>0.09442296311639244</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,185 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.7348883333333333</v>
+      </c>
+      <c r="H5">
+        <v>2.204665</v>
+      </c>
+      <c r="I5">
+        <v>0.1633732264179005</v>
+      </c>
+      <c r="J5">
+        <v>0.1633732264179005</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.823282</v>
+      </c>
+      <c r="N5">
+        <v>14.469846</v>
+      </c>
+      <c r="O5">
+        <v>0.4220413883798607</v>
+      </c>
+      <c r="P5">
+        <v>0.4220413883798607</v>
+      </c>
+      <c r="Q5">
+        <v>3.544573670176666</v>
+      </c>
+      <c r="R5">
+        <v>31.90116303159</v>
+      </c>
+      <c r="S5">
+        <v>0.06895026330150805</v>
+      </c>
+      <c r="T5">
+        <v>0.06895026330150805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.33185312769801</v>
-      </c>
-      <c r="H5">
-        <v>1.33185312769801</v>
-      </c>
-      <c r="I5">
-        <v>0.6777755728046539</v>
-      </c>
-      <c r="J5">
-        <v>0.6777755728046539</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.78718873048051</v>
-      </c>
-      <c r="N5">
-        <v>4.78718873048051</v>
-      </c>
-      <c r="O5">
-        <v>0.4246120160163679</v>
-      </c>
-      <c r="P5">
-        <v>0.4246120160163679</v>
-      </c>
-      <c r="Q5">
-        <v>6.375832283571133</v>
-      </c>
-      <c r="R5">
-        <v>6.375832283571133</v>
-      </c>
-      <c r="S5">
-        <v>0.2877916523752326</v>
-      </c>
-      <c r="T5">
-        <v>0.2877916523752326</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.583934333333333</v>
+      </c>
+      <c r="H6">
+        <v>4.751803</v>
+      </c>
+      <c r="I6">
+        <v>0.3521248749412083</v>
+      </c>
+      <c r="J6">
+        <v>0.3521248749412082</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6.605175333333333</v>
+      </c>
+      <c r="N6">
+        <v>19.815526</v>
+      </c>
+      <c r="O6">
+        <v>0.5779586116201393</v>
+      </c>
+      <c r="P6">
+        <v>0.5779586116201394</v>
+      </c>
+      <c r="Q6">
+        <v>10.46216398815311</v>
+      </c>
+      <c r="R6">
+        <v>94.15947589337799</v>
+      </c>
+      <c r="S6">
+        <v>0.2035136038379359</v>
+      </c>
+      <c r="T6">
+        <v>0.2035136038379359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.583934333333333</v>
+      </c>
+      <c r="H7">
+        <v>4.751803</v>
+      </c>
+      <c r="I7">
+        <v>0.3521248749412083</v>
+      </c>
+      <c r="J7">
+        <v>0.3521248749412082</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.823282</v>
+      </c>
+      <c r="N7">
+        <v>14.469846</v>
+      </c>
+      <c r="O7">
+        <v>0.4220413883798607</v>
+      </c>
+      <c r="P7">
+        <v>0.4220413883798607</v>
+      </c>
+      <c r="Q7">
+        <v>7.639761959148666</v>
+      </c>
+      <c r="R7">
+        <v>68.757857632338</v>
+      </c>
+      <c r="S7">
+        <v>0.1486112711032723</v>
+      </c>
+      <c r="T7">
+        <v>0.1486112711032723</v>
       </c>
     </row>
   </sheetData>
